--- a/The Complete Financial Analyst Course 2019/4. Microsoft Excel - Best Practices That Will Make a Difference/1.3 03 17 Formatting a Worksheet Solved.xlsx
+++ b/The Complete Financial Analyst Course 2019/4. Microsoft Excel - Best Practices That Will Make a Difference/1.3 03 17 Formatting a Worksheet Solved.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22827"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4DEBB257-6838-48DB-9565-F81A4CD8F442}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2A8040B-B97E-4605-9534-0E01B26B90EA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Exercise" sheetId="1" r:id="rId1"/>
@@ -497,7 +497,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:K15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
@@ -695,7 +695,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G14"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
